--- a/static/download/2023/RP3_ERT_ATFM_2023_Jan_Dec.xlsx
+++ b/static/download/2023/RP3_ERT_ATFM_2023_Jan_Dec.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>Data source</t>
   </si>
@@ -395,7 +395,7 @@
     <t>Austro Control</t>
   </si>
   <si>
-    <t>Avinor</t>
+    <t>Avinor Flysikring AS</t>
   </si>
   <si>
     <t>BULATSA</t>
@@ -407,7 +407,7 @@
     <t>DCAC Cyprus</t>
   </si>
   <si>
-    <t>DFS</t>
+    <t>DFS + MUAC-DE</t>
   </si>
   <si>
     <t>DSNA</t>
@@ -431,7 +431,7 @@
     <t>HungaroControl (EC)</t>
   </si>
   <si>
-    <t>IAA</t>
+    <t>AirNav Ireland</t>
   </si>
   <si>
     <t>LFV</t>
@@ -440,40 +440,37 @@
     <t>LGS</t>
   </si>
   <si>
-    <t>LPS</t>
-  </si>
-  <si>
-    <t>LVNL</t>
-  </si>
-  <si>
-    <t>Maastricht UAC</t>
-  </si>
-  <si>
-    <t>MATS</t>
-  </si>
-  <si>
-    <t>NAV Portugal</t>
+    <t>LPS SR</t>
+  </si>
+  <si>
+    <t>LVNL + MUAC-NL</t>
+  </si>
+  <si>
+    <t>Malta Air Traffic Services Ltd.</t>
+  </si>
+  <si>
+    <t>NAV Portugal (Continental)</t>
   </si>
   <si>
     <t>NAVIAIR</t>
   </si>
   <si>
-    <t>Oro navigacija</t>
-  </si>
-  <si>
     <t>PANSA</t>
   </si>
   <si>
     <t>ROMATSA</t>
   </si>
   <si>
-    <t>skeyes</t>
+    <t>SE Oro Navigacija</t>
+  </si>
+  <si>
+    <t>Belgium-Lux. + MUAC  BE-LU</t>
   </si>
   <si>
     <t>Skyguide</t>
   </si>
   <si>
-    <t>Slovenia Control</t>
+    <t>Slovenia Control, Ltd</t>
   </si>
   <si>
     <t>Change date</t>
@@ -665,7 +662,11 @@
       </bottom>
     </border>
     <border>
-      <left/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right/>
       <top/>
       <bottom style="thin">
@@ -673,11 +674,7 @@
       </bottom>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -867,24 +864,24 @@
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -893,7 +890,7 @@
     <xf borderId="8" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -987,22 +984,22 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="3" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1096,13 +1093,13 @@
     <xf borderId="1" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1240,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <v>45305.0</v>
+        <v>45415.0</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -1546,20 +1543,20 @@
       </c>
       <c r="C14" s="32">
         <f t="shared" si="1"/>
-        <v>1.841332445</v>
+        <v>1.84449395</v>
       </c>
       <c r="D14" s="39">
-        <v>9074987.0</v>
+        <v>9074991.0</v>
       </c>
       <c r="E14" s="40">
-        <v>1.6710068E7</v>
+        <v>1.6738766E7</v>
       </c>
       <c r="F14" s="43">
         <v>0.5</v>
       </c>
       <c r="G14" s="42">
         <f t="shared" si="2"/>
-        <v>1.341332445</v>
+        <v>1.34449395</v>
       </c>
       <c r="H14" s="37">
         <v>0.0421</v>
@@ -1636,7 +1633,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45305</v>
+        <v>45415</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -2724,17 +2721,17 @@
       </c>
       <c r="B54" s="65">
         <f t="shared" si="1"/>
-        <v>0.3051586418</v>
+        <v>0.3014218549</v>
       </c>
       <c r="C54" s="67">
         <v>597037.0</v>
       </c>
       <c r="D54" s="67">
-        <v>182191.0</v>
+        <v>179960.0</v>
       </c>
       <c r="E54" s="77">
         <f>D54/C54</f>
-        <v>0.3051586418</v>
+        <v>0.3014218549</v>
       </c>
       <c r="F54" s="78">
         <v>1.0</v>
@@ -2746,17 +2743,17 @@
       </c>
       <c r="B55" s="70">
         <f t="shared" si="1"/>
-        <v>0.6111623746</v>
+        <v>0.6115233715</v>
       </c>
       <c r="C55" s="72">
         <v>567872.0</v>
       </c>
       <c r="D55" s="72">
-        <v>347062.0</v>
+        <v>347267.0</v>
       </c>
       <c r="E55" s="70">
         <f t="shared" ref="E55:E65" si="5">sum(D$54:D55)/sum(C$54:C55)</f>
-        <v>0.454329909</v>
+        <v>0.4525907174</v>
       </c>
       <c r="F55" s="79">
         <v>1.0</v>
@@ -2768,17 +2765,17 @@
       </c>
       <c r="B56" s="70">
         <f t="shared" si="1"/>
-        <v>2.335165838</v>
+        <v>2.341387704</v>
       </c>
       <c r="C56" s="72">
         <v>662663.0</v>
       </c>
       <c r="D56" s="72">
-        <v>1547428.0</v>
+        <v>1551551.0</v>
       </c>
       <c r="E56" s="70">
         <f t="shared" si="5"/>
-        <v>1.136305984</v>
+        <v>1.137453408</v>
       </c>
       <c r="F56" s="79">
         <v>1.0</v>
@@ -2790,17 +2787,17 @@
       </c>
       <c r="B57" s="70">
         <f t="shared" si="1"/>
-        <v>2.052073357</v>
+        <v>2.043651775</v>
       </c>
       <c r="C57" s="72">
         <v>731929.0</v>
       </c>
       <c r="D57" s="72">
-        <v>1501972.0</v>
+        <v>1495808.0</v>
       </c>
       <c r="E57" s="70">
         <f t="shared" si="5"/>
-        <v>1.398183865</v>
+        <v>1.396594883</v>
       </c>
       <c r="F57" s="79">
         <v>1.0</v>
@@ -2812,17 +2809,17 @@
       </c>
       <c r="B58" s="70">
         <f t="shared" si="1"/>
-        <v>1.734733059</v>
+        <v>1.735761173</v>
       </c>
       <c r="C58" s="72">
         <v>814112.0</v>
       </c>
       <c r="D58" s="72">
-        <v>1412267.0</v>
+        <v>1413104.0</v>
       </c>
       <c r="E58" s="70">
         <f t="shared" si="5"/>
-        <v>1.479399089</v>
+        <v>1.478441659</v>
       </c>
       <c r="F58" s="79">
         <v>1.0</v>
@@ -2834,17 +2831,17 @@
       </c>
       <c r="B59" s="70">
         <f t="shared" si="1"/>
-        <v>2.811579409</v>
+        <v>2.833663716</v>
       </c>
       <c r="C59" s="72">
         <v>860113.0</v>
       </c>
       <c r="D59" s="72">
-        <v>2418276.0</v>
+        <v>2437271.0</v>
       </c>
       <c r="E59" s="70">
         <f t="shared" si="5"/>
-        <v>1.750041453</v>
+        <v>1.753765123</v>
       </c>
       <c r="F59" s="79">
         <v>1.0</v>
@@ -2856,17 +2853,17 @@
       </c>
       <c r="B60" s="70">
         <f t="shared" si="1"/>
-        <v>3.219138936</v>
+        <v>3.228380407</v>
       </c>
       <c r="C60" s="72">
         <v>914032.0</v>
       </c>
       <c r="D60" s="72">
-        <v>2942396.0</v>
+        <v>2950843.0</v>
       </c>
       <c r="E60" s="70">
         <f t="shared" si="5"/>
-        <v>2.010893286</v>
+        <v>2.015596693</v>
       </c>
       <c r="F60" s="79">
         <v>1.0</v>
@@ -2878,17 +2875,17 @@
       </c>
       <c r="B61" s="70">
         <f t="shared" si="1"/>
-        <v>2.815165044</v>
+        <v>2.822509919</v>
       </c>
       <c r="C61" s="72">
         <v>905121.0</v>
       </c>
       <c r="D61" s="72">
-        <v>2548065.0</v>
+        <v>2554713.0</v>
       </c>
       <c r="E61" s="70">
         <f t="shared" si="5"/>
-        <v>2.13116056</v>
+        <v>2.13625896</v>
       </c>
       <c r="F61" s="79">
         <v>1.0</v>
@@ -2900,17 +2897,17 @@
       </c>
       <c r="B62" s="70">
         <f t="shared" si="1"/>
-        <v>1.901974394</v>
+        <v>1.909568129</v>
       </c>
       <c r="C62" s="72">
         <v>870191.0</v>
       </c>
       <c r="D62" s="72">
-        <v>1655081.0</v>
+        <v>1661689.0</v>
       </c>
       <c r="E62" s="70">
         <f t="shared" si="5"/>
-        <v>2.102353147</v>
+        <v>2.107765197</v>
       </c>
       <c r="F62" s="79">
         <v>1.0</v>
@@ -2922,17 +2919,17 @@
       </c>
       <c r="B63" s="70">
         <f t="shared" si="1"/>
-        <v>1.497203313</v>
+        <v>1.496495777</v>
       </c>
       <c r="C63" s="72">
-        <v>835274.0</v>
+        <v>835278.0</v>
       </c>
       <c r="D63" s="72">
-        <v>1250575.0</v>
+        <v>1249990.0</v>
       </c>
       <c r="E63" s="70">
         <f t="shared" si="5"/>
-        <v>2.037201882</v>
+        <v>2.041954808</v>
       </c>
       <c r="F63" s="79">
         <v>1.0</v>
@@ -2944,17 +2941,17 @@
       </c>
       <c r="B64" s="70">
         <f t="shared" si="1"/>
-        <v>0.7708645685</v>
+        <v>0.7609382555</v>
       </c>
       <c r="C64" s="72">
         <v>657646.0</v>
       </c>
       <c r="D64" s="72">
-        <v>506956.0</v>
+        <v>500428.0</v>
       </c>
       <c r="E64" s="70">
         <f t="shared" si="5"/>
-        <v>1.938247194</v>
+        <v>1.941853095</v>
       </c>
       <c r="F64" s="79">
         <v>1.0</v>
@@ -2966,17 +2963,17 @@
       </c>
       <c r="B65" s="70">
         <f t="shared" si="1"/>
-        <v>0.6036431122</v>
+        <v>0.601128685</v>
       </c>
       <c r="C65" s="75">
         <v>658997.0</v>
       </c>
       <c r="D65" s="75">
-        <v>397799.0</v>
+        <v>396142.0</v>
       </c>
       <c r="E65" s="70">
         <f t="shared" si="5"/>
-        <v>1.841332445</v>
+        <v>1.84449395</v>
       </c>
       <c r="F65" s="79">
         <v>1.0</v>
@@ -3155,7 +3152,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45305</v>
+        <v>45415</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3224,18 +3221,18 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="99">
-        <v>9074987.0</v>
+        <v>9074991.0</v>
       </c>
       <c r="D6" s="99">
-        <v>1.6710068E7</v>
+        <v>1.6738766E7</v>
       </c>
       <c r="E6" s="98">
         <f t="shared" ref="E6:E15" si="1">D6/C6</f>
-        <v>1.841332445</v>
+        <v>1.84449395</v>
       </c>
       <c r="F6" s="98">
         <f>E6-B6</f>
-        <v>1.341332445</v>
+        <v>1.34449395</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -3244,14 +3241,14 @@
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="99">
-        <v>733533.0</v>
+        <v>733534.0</v>
       </c>
       <c r="D7" s="99">
-        <v>142051.0</v>
+        <v>136155.0</v>
       </c>
       <c r="E7" s="98">
         <f t="shared" si="1"/>
-        <v>0.1936531826</v>
+        <v>0.185615118</v>
       </c>
       <c r="F7" s="98"/>
     </row>
@@ -3261,14 +3258,14 @@
       </c>
       <c r="B8" s="98"/>
       <c r="C8" s="99">
-        <v>2719574.0</v>
+        <v>2719577.0</v>
       </c>
       <c r="D8" s="99">
-        <v>1171204.0</v>
+        <v>1105652.0</v>
       </c>
       <c r="E8" s="98">
         <f t="shared" si="1"/>
-        <v>0.4306571544</v>
+        <v>0.4065529308</v>
       </c>
       <c r="F8" s="98"/>
     </row>
@@ -3278,14 +3275,14 @@
       </c>
       <c r="B9" s="98"/>
       <c r="C9" s="99">
-        <v>1131156.0</v>
+        <v>1131157.0</v>
       </c>
       <c r="D9" s="99">
-        <v>216308.0</v>
+        <v>176606.0</v>
       </c>
       <c r="E9" s="98">
         <f t="shared" si="1"/>
-        <v>0.1912273815</v>
+        <v>0.1561286364</v>
       </c>
       <c r="F9" s="98"/>
     </row>
@@ -3312,14 +3309,14 @@
       </c>
       <c r="B11" s="98"/>
       <c r="C11" s="99">
-        <v>2221610.0</v>
+        <v>2221608.0</v>
       </c>
       <c r="D11" s="99">
-        <v>1669963.0</v>
+        <v>1411084.0</v>
       </c>
       <c r="E11" s="98">
         <f t="shared" si="1"/>
-        <v>0.7516904407</v>
+        <v>0.6351633592</v>
       </c>
       <c r="F11" s="98"/>
     </row>
@@ -3329,14 +3326,14 @@
       </c>
       <c r="B12" s="98"/>
       <c r="C12" s="99">
-        <v>5669472.0</v>
+        <v>5669473.0</v>
       </c>
       <c r="D12" s="99">
-        <v>1.1897565E7</v>
+        <v>1.2462181E7</v>
       </c>
       <c r="E12" s="98">
         <f t="shared" si="1"/>
-        <v>2.098531398</v>
+        <v>2.198119825</v>
       </c>
       <c r="F12" s="98"/>
     </row>
@@ -3363,14 +3360,14 @@
       </c>
       <c r="B14" s="98"/>
       <c r="C14" s="99">
-        <v>2266601.0</v>
+        <v>2266603.0</v>
       </c>
       <c r="D14" s="99">
-        <v>1521411.0</v>
+        <v>1355522.0</v>
       </c>
       <c r="E14" s="98">
         <f t="shared" si="1"/>
-        <v>0.6712301812</v>
+        <v>0.5980412097</v>
       </c>
       <c r="F14" s="98"/>
     </row>
@@ -3380,14 +3377,14 @@
       </c>
       <c r="B15" s="98"/>
       <c r="C15" s="99">
-        <v>2410215.0</v>
+        <v>2410220.0</v>
       </c>
       <c r="D15" s="99">
-        <v>758360.0</v>
+        <v>729164.0</v>
       </c>
       <c r="E15" s="98">
         <f t="shared" si="1"/>
-        <v>0.3146441293</v>
+        <v>0.3025300595</v>
       </c>
       <c r="F15" s="98"/>
     </row>
@@ -3440,7 +3437,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45305</v>
+        <v>45415</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3511,16 +3508,17 @@
       <c r="A6" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="98"/>
+      <c r="B6" s="98">
+        <v>0.11</v>
+      </c>
       <c r="C6" s="99">
         <v>621228.0</v>
       </c>
       <c r="D6" s="99">
-        <v>69129.0</v>
+        <v>55600.0</v>
       </c>
       <c r="E6" s="101">
-        <f t="shared" ref="E6:E34" si="1">D6/C6</f>
-        <v>0.1112779849</v>
+        <v>0.09</v>
       </c>
       <c r="F6" s="98" t="s">
         <v>4</v>
@@ -3530,16 +3528,17 @@
       <c r="A7" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="98"/>
+      <c r="B7" s="98">
+        <v>0.16</v>
+      </c>
       <c r="C7" s="99">
-        <v>1195046.0</v>
+        <v>1195044.0</v>
       </c>
       <c r="D7" s="99">
-        <v>164182.0</v>
+        <v>146655.0</v>
       </c>
       <c r="E7" s="101">
-        <f t="shared" si="1"/>
-        <v>0.1373855065</v>
+        <v>0.12</v>
       </c>
       <c r="F7" s="98"/>
     </row>
@@ -3547,7 +3546,9 @@
       <c r="A8" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="98"/>
+      <c r="B8" s="98">
+        <v>0.11</v>
+      </c>
       <c r="C8" s="99">
         <v>552092.0</v>
       </c>
@@ -3555,8 +3556,7 @@
         <v>17494.0</v>
       </c>
       <c r="E8" s="101">
-        <f t="shared" si="1"/>
-        <v>0.03168674786</v>
+        <v>0.03</v>
       </c>
       <c r="F8" s="98"/>
     </row>
@@ -3564,16 +3564,17 @@
       <c r="A9" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="98"/>
+      <c r="B9" s="98">
+        <v>0.08</v>
+      </c>
       <c r="C9" s="99">
-        <v>973536.0</v>
+        <v>973535.0</v>
       </c>
       <c r="D9" s="99">
-        <v>61608.0</v>
+        <v>55305.0</v>
       </c>
       <c r="E9" s="101">
-        <f t="shared" si="1"/>
-        <v>0.06328271374</v>
+        <v>0.06</v>
       </c>
       <c r="F9" s="98"/>
     </row>
@@ -3581,16 +3582,17 @@
       <c r="A10" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="98"/>
+      <c r="B10" s="98">
+        <v>0.17</v>
+      </c>
       <c r="C10" s="99">
-        <v>812671.0</v>
+        <v>812670.0</v>
       </c>
       <c r="D10" s="99">
-        <v>386246.0</v>
+        <v>346755.0</v>
       </c>
       <c r="E10" s="101">
-        <f t="shared" si="1"/>
-        <v>0.4752796642</v>
+        <v>0.43</v>
       </c>
       <c r="F10" s="98"/>
     </row>
@@ -3598,7 +3600,9 @@
       <c r="A11" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="98">
+        <v>0.15</v>
+      </c>
       <c r="C11" s="99">
         <v>402218.0</v>
       </c>
@@ -3606,8 +3610,7 @@
         <v>15024.0</v>
       </c>
       <c r="E11" s="101">
-        <f t="shared" si="1"/>
-        <v>0.03735287829</v>
+        <v>0.04</v>
       </c>
       <c r="F11" s="98"/>
     </row>
@@ -3615,16 +3618,17 @@
       <c r="A12" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="98"/>
+      <c r="B12" s="98">
+        <v>0.27</v>
+      </c>
       <c r="C12" s="99">
-        <v>2691042.0</v>
+        <v>2710128.0</v>
       </c>
       <c r="D12" s="99">
-        <v>4562162.0</v>
+        <v>5239051.0</v>
       </c>
       <c r="E12" s="101">
-        <f t="shared" si="1"/>
-        <v>1.695314306</v>
+        <v>1.93</v>
       </c>
       <c r="F12" s="98"/>
     </row>
@@ -3632,16 +3636,17 @@
       <c r="A13" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="98"/>
+      <c r="B13" s="98">
+        <v>0.25</v>
+      </c>
       <c r="C13" s="99">
-        <v>3184156.0</v>
+        <v>3184161.0</v>
       </c>
       <c r="D13" s="99">
-        <v>6666606.0</v>
+        <v>6795412.0</v>
       </c>
       <c r="E13" s="101">
-        <f t="shared" si="1"/>
-        <v>2.093680712</v>
+        <v>2.13</v>
       </c>
       <c r="F13" s="98"/>
     </row>
@@ -3649,7 +3654,9 @@
       <c r="A14" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="98"/>
+      <c r="B14" s="98">
+        <v>0.03</v>
+      </c>
       <c r="C14" s="99">
         <v>148187.0</v>
       </c>
@@ -3657,8 +3664,7 @@
         <v>0.0</v>
       </c>
       <c r="E14" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="98"/>
     </row>
@@ -3666,16 +3672,17 @@
       <c r="A15" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="98"/>
+      <c r="B15" s="98">
+        <v>0.19</v>
+      </c>
       <c r="C15" s="99">
-        <v>2193326.0</v>
+        <v>2193328.0</v>
       </c>
       <c r="D15" s="99">
-        <v>1192975.0</v>
+        <v>1028968.0</v>
       </c>
       <c r="E15" s="101">
-        <f t="shared" si="1"/>
-        <v>0.543911393</v>
+        <v>0.47</v>
       </c>
       <c r="F15" s="98"/>
     </row>
@@ -3683,16 +3690,17 @@
       <c r="A16" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="98"/>
+      <c r="B16" s="98">
+        <v>0.11</v>
+      </c>
       <c r="C16" s="99">
-        <v>1854447.0</v>
+        <v>1854449.0</v>
       </c>
       <c r="D16" s="99">
-        <v>318112.0</v>
+        <v>263619.0</v>
       </c>
       <c r="E16" s="101">
-        <f t="shared" si="1"/>
-        <v>0.1715400872</v>
+        <v>0.14</v>
       </c>
       <c r="F16" s="98"/>
     </row>
@@ -3700,7 +3708,9 @@
       <c r="A17" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="98"/>
+      <c r="B17" s="98">
+        <v>0.05</v>
+      </c>
       <c r="C17" s="99">
         <v>211743.0</v>
       </c>
@@ -3708,8 +3718,7 @@
         <v>0.0</v>
       </c>
       <c r="E17" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="98"/>
     </row>
@@ -3717,16 +3726,17 @@
       <c r="A18" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="98"/>
+      <c r="B18" s="98">
+        <v>0.15</v>
+      </c>
       <c r="C18" s="99">
-        <v>1000763.0</v>
+        <v>1000766.0</v>
       </c>
       <c r="D18" s="99">
-        <v>838068.0</v>
+        <v>827009.0</v>
       </c>
       <c r="E18" s="101">
-        <f t="shared" si="1"/>
-        <v>0.8374290416</v>
+        <v>0.83</v>
       </c>
       <c r="F18" s="98"/>
     </row>
@@ -3734,16 +3744,17 @@
       <c r="A19" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="98"/>
+      <c r="B19" s="98">
+        <v>0.11</v>
+      </c>
       <c r="C19" s="99">
-        <v>1029202.0</v>
+        <v>1029201.0</v>
       </c>
       <c r="D19" s="99">
-        <v>1015254.0</v>
+        <v>832049.0</v>
       </c>
       <c r="E19" s="101">
-        <f t="shared" si="1"/>
-        <v>0.9864477527</v>
+        <v>0.81</v>
       </c>
       <c r="F19" s="98"/>
     </row>
@@ -3751,16 +3762,17 @@
       <c r="A20" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="98"/>
+      <c r="B20" s="98">
+        <v>0.03</v>
+      </c>
       <c r="C20" s="99">
-        <v>664634.0</v>
+        <v>664639.0</v>
       </c>
       <c r="D20" s="99">
         <v>10769.0</v>
       </c>
       <c r="E20" s="101">
-        <f t="shared" si="1"/>
-        <v>0.01620290265</v>
+        <v>0.02</v>
       </c>
       <c r="F20" s="98"/>
     </row>
@@ -3768,7 +3780,9 @@
       <c r="A21" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="98"/>
+      <c r="B21" s="98">
+        <v>0.08</v>
+      </c>
       <c r="C21" s="99">
         <v>582314.0</v>
       </c>
@@ -3776,8 +3790,7 @@
         <v>7242.0</v>
       </c>
       <c r="E21" s="101">
-        <f t="shared" si="1"/>
-        <v>0.01243658919</v>
+        <v>0.01</v>
       </c>
       <c r="F21" s="98"/>
     </row>
@@ -3785,7 +3798,9 @@
       <c r="A22" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="98"/>
+      <c r="B22" s="98">
+        <v>0.03</v>
+      </c>
       <c r="C22" s="99">
         <v>198623.0</v>
       </c>
@@ -3793,8 +3808,7 @@
         <v>0.0</v>
       </c>
       <c r="E22" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" s="98"/>
     </row>
@@ -3802,16 +3816,17 @@
       <c r="A23" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="98"/>
+      <c r="B23" s="98">
+        <v>0.07</v>
+      </c>
       <c r="C23" s="99">
-        <v>530296.0</v>
+        <v>530297.0</v>
       </c>
       <c r="D23" s="99">
-        <v>22132.0</v>
+        <v>17005.0</v>
       </c>
       <c r="E23" s="101">
-        <f t="shared" si="1"/>
-        <v>0.04173518186</v>
+        <v>0.03</v>
       </c>
       <c r="F23" s="98"/>
     </row>
@@ -3819,16 +3834,17 @@
       <c r="A24" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="98"/>
+      <c r="B24" s="98">
+        <v>0.14</v>
+      </c>
       <c r="C24" s="99">
-        <v>554149.0</v>
+        <v>1128437.0</v>
       </c>
       <c r="D24" s="99">
-        <v>38258.0</v>
+        <v>66559.0</v>
       </c>
       <c r="E24" s="101">
-        <f t="shared" si="1"/>
-        <v>0.06903919343</v>
+        <v>0.06</v>
       </c>
       <c r="F24" s="98"/>
     </row>
@@ -3836,16 +3852,17 @@
       <c r="A25" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="98"/>
+      <c r="B25" s="98">
+        <v>0.01</v>
+      </c>
       <c r="C25" s="99">
-        <v>1711254.0</v>
+        <v>136280.0</v>
       </c>
       <c r="D25" s="99">
-        <v>335156.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" s="101">
-        <f t="shared" si="1"/>
-        <v>0.1958540345</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="98"/>
     </row>
@@ -3853,16 +3870,17 @@
       <c r="A26" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="98"/>
+      <c r="B26" s="98">
+        <v>0.13</v>
+      </c>
       <c r="C26" s="99">
-        <v>136279.0</v>
+        <v>673475.0</v>
       </c>
       <c r="D26" s="99">
-        <v>0.0</v>
+        <v>326554.0</v>
       </c>
       <c r="E26" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="F26" s="98"/>
     </row>
@@ -3870,16 +3888,17 @@
       <c r="A27" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="98"/>
+      <c r="B27" s="98">
+        <v>0.05</v>
+      </c>
       <c r="C27" s="99">
-        <v>673472.0</v>
+        <v>570000.0</v>
       </c>
       <c r="D27" s="99">
-        <v>328436.0</v>
+        <v>56061.0</v>
       </c>
       <c r="E27" s="101">
-        <f t="shared" si="1"/>
-        <v>0.4876758054</v>
+        <v>0.1</v>
       </c>
       <c r="F27" s="98"/>
     </row>
@@ -3887,16 +3906,17 @@
       <c r="A28" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="98"/>
+      <c r="B28" s="98">
+        <v>0.12</v>
+      </c>
       <c r="C28" s="99">
-        <v>570000.0</v>
+        <v>684573.0</v>
       </c>
       <c r="D28" s="99">
-        <v>56061.0</v>
+        <v>136155.0</v>
       </c>
       <c r="E28" s="101">
-        <f t="shared" si="1"/>
-        <v>0.09835263158</v>
+        <v>0.2</v>
       </c>
       <c r="F28" s="98"/>
     </row>
@@ -3904,16 +3924,17 @@
       <c r="A29" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="98"/>
+      <c r="B29" s="98">
+        <v>0.04</v>
+      </c>
       <c r="C29" s="99">
-        <v>167683.0</v>
+        <v>768564.0</v>
       </c>
       <c r="D29" s="99">
-        <v>0.0</v>
+        <v>121301.0</v>
       </c>
       <c r="E29" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F29" s="98"/>
     </row>
@@ -3921,16 +3942,17 @@
       <c r="A30" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="98"/>
+      <c r="B30" s="98">
+        <v>0.02</v>
+      </c>
       <c r="C30" s="99">
-        <v>684572.0</v>
+        <v>167683.0</v>
       </c>
       <c r="D30" s="99">
-        <v>142051.0</v>
+        <v>0.0</v>
       </c>
       <c r="E30" s="101">
-        <f t="shared" si="1"/>
-        <v>0.2075033744</v>
+        <v>0.0</v>
       </c>
       <c r="F30" s="98"/>
     </row>
@@ -3938,16 +3960,17 @@
       <c r="A31" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="98"/>
+      <c r="B31" s="98">
+        <v>0.17</v>
+      </c>
       <c r="C31" s="99">
-        <v>768564.0</v>
+        <v>1174215.0</v>
       </c>
       <c r="D31" s="99">
-        <v>154700.0</v>
+        <v>205697.0</v>
       </c>
       <c r="E31" s="101">
-        <f t="shared" si="1"/>
-        <v>0.2012844734</v>
+        <v>0.18</v>
       </c>
       <c r="F31" s="98"/>
     </row>
@@ -3955,16 +3978,17 @@
       <c r="A32" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="98"/>
+      <c r="B32" s="98">
+        <v>0.19</v>
+      </c>
       <c r="C32" s="99">
-        <v>560126.0</v>
+        <v>1212069.0</v>
       </c>
       <c r="D32" s="99">
-        <v>48813.0</v>
+        <v>155462.0</v>
       </c>
       <c r="E32" s="101">
-        <f t="shared" si="1"/>
-        <v>0.08714646347</v>
+        <v>0.13</v>
       </c>
       <c r="F32" s="98"/>
     </row>
@@ -3972,33 +3996,35 @@
       <c r="A33" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="98"/>
+      <c r="B33" s="98">
+        <v>0.09</v>
+      </c>
       <c r="C33" s="99">
-        <v>1212068.0</v>
+        <v>395777.0</v>
       </c>
       <c r="D33" s="99">
-        <v>246570.0</v>
+        <v>13020.0</v>
       </c>
       <c r="E33" s="101">
-        <f t="shared" si="1"/>
-        <v>0.2034291805</v>
+        <v>0.03</v>
       </c>
       <c r="F33" s="98"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99">
-        <v>395774.0</v>
-      </c>
-      <c r="D34" s="99">
-        <v>13020.0</v>
-      </c>
-      <c r="E34" s="101">
-        <f t="shared" si="1"/>
-        <v>0.03289756275</v>
+        <v>4</v>
+      </c>
+      <c r="B34" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="101" t="s">
+        <v>4</v>
       </c>
       <c r="F34" s="98"/>
     </row>
@@ -4025,16 +4051,16 @@
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
       <c r="A1" s="102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="102" t="s">
         <v>123</v>
       </c>
       <c r="C1" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="102" t="s">
         <v>154</v>
-      </c>
-      <c r="D1" s="102" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -4042,11 +4068,11 @@
         <v>44351.0</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="105"/>
       <c r="D2" s="104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
